--- a/data/aoc/d6.xlsx
+++ b/data/aoc/d6.xlsx
@@ -24,7 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>timer</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -349,21 +353,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A300"/>
+  <dimension ref="A1:A301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
     </row>
@@ -384,12 +388,12 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -404,12 +408,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
@@ -419,57 +423,57 @@
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
@@ -489,27 +493,27 @@
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
@@ -519,12 +523,12 @@
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
@@ -539,27 +543,27 @@
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
@@ -569,22 +573,22 @@
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
@@ -594,17 +598,17 @@
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
@@ -619,22 +623,22 @@
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
@@ -649,12 +653,12 @@
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
@@ -689,12 +693,12 @@
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
@@ -704,47 +708,47 @@
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
@@ -754,7 +758,7 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
@@ -764,17 +768,17 @@
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
@@ -784,17 +788,17 @@
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
@@ -809,7 +813,7 @@
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
@@ -819,17 +823,17 @@
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
@@ -839,12 +843,12 @@
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
@@ -854,12 +858,12 @@
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
@@ -874,32 +878,32 @@
     </row>
     <row r="104" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="108" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="110" spans="1:1" x14ac:dyDescent="0.25">
@@ -914,22 +918,22 @@
     </row>
     <row r="112" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:1" x14ac:dyDescent="0.25">
@@ -944,7 +948,7 @@
     </row>
     <row r="118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:1" x14ac:dyDescent="0.25">
@@ -954,22 +958,22 @@
     </row>
     <row r="120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="123" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:1" x14ac:dyDescent="0.25">
@@ -979,7 +983,7 @@
     </row>
     <row r="125" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:1" x14ac:dyDescent="0.25">
@@ -989,22 +993,22 @@
     </row>
     <row r="127" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.25">
@@ -1019,12 +1023,12 @@
     </row>
     <row r="133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:1" x14ac:dyDescent="0.25">
@@ -1034,22 +1038,22 @@
     </row>
     <row r="136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:1" x14ac:dyDescent="0.25">
@@ -1059,32 +1063,32 @@
     </row>
     <row r="141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="144" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:1" x14ac:dyDescent="0.25">
@@ -1094,22 +1098,22 @@
     </row>
     <row r="148" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="152" spans="1:1" x14ac:dyDescent="0.25">
@@ -1119,7 +1123,7 @@
     </row>
     <row r="153" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="154" spans="1:1" x14ac:dyDescent="0.25">
@@ -1129,17 +1133,17 @@
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
@@ -1149,52 +1153,52 @@
     </row>
     <row r="159" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
@@ -1239,17 +1243,17 @@
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
@@ -1269,12 +1273,12 @@
     </row>
     <row r="183" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="185" spans="1:1" x14ac:dyDescent="0.25">
@@ -1284,12 +1288,12 @@
     </row>
     <row r="186" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
@@ -1299,12 +1303,12 @@
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:1" x14ac:dyDescent="0.25">
@@ -1314,12 +1318,12 @@
     </row>
     <row r="192" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
@@ -1329,22 +1333,22 @@
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="1:1" x14ac:dyDescent="0.25">
@@ -1354,27 +1358,27 @@
     </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
@@ -1394,22 +1398,22 @@
     </row>
     <row r="208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
@@ -1419,22 +1423,22 @@
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
@@ -1444,7 +1448,7 @@
     </row>
     <row r="218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="219" spans="1:1" x14ac:dyDescent="0.25">
@@ -1459,12 +1463,12 @@
     </row>
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
@@ -1479,37 +1483,37 @@
     </row>
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="232" spans="1:1" x14ac:dyDescent="0.25">
@@ -1519,22 +1523,22 @@
     </row>
     <row r="233" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
@@ -1549,17 +1553,17 @@
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
@@ -1599,12 +1603,12 @@
     </row>
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
@@ -1624,17 +1628,17 @@
     </row>
     <row r="254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
@@ -1644,22 +1648,22 @@
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
@@ -1669,7 +1673,7 @@
     </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
@@ -1679,7 +1683,7 @@
     </row>
     <row r="265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A265">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
@@ -1689,37 +1693,37 @@
     </row>
     <row r="267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A267">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
@@ -1734,12 +1738,12 @@
     </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A277">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="278" spans="1:1" x14ac:dyDescent="0.25">
@@ -1749,22 +1753,22 @@
     </row>
     <row r="279" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A279">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="280" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A280">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
@@ -1774,22 +1778,22 @@
     </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A285">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="286" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A286">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
@@ -1804,32 +1808,32 @@
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A293">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A295">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
@@ -1839,21 +1843,26 @@
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301">
         <v>1</v>
       </c>
     </row>
@@ -1863,6 +1872,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EDD4FD17AA69A24BA4F9B3C459B1F6E7" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9ac138287c70b8125db407f2ffb0887d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="bdcb4060-e141-4b08-afc8-0b3cfa619970" xmlns:ns4="9aa64958-17f9-4662-a27a-21f507a1bfb5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="bf9bfd1b1ae32e88316e65b9ced63a1e" ns3:_="" ns4:_="">
     <xsd:import namespace="bdcb4060-e141-4b08-afc8-0b3cfa619970"/>
@@ -2085,22 +2109,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EAAAA3-E927-4F25-860E-5858791DBC7E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="bdcb4060-e141-4b08-afc8-0b3cfa619970"/>
+    <ds:schemaRef ds:uri="9aa64958-17f9-4662-a27a-21f507a1bfb5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3B3524-DA9F-4C66-987D-998A495F4994}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0769024-E04B-48C1-9117-40A6DDABE5E6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2117,29 +2151,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0E3B3524-DA9F-4C66-987D-998A495F4994}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81EAAAA3-E927-4F25-860E-5858791DBC7E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="bdcb4060-e141-4b08-afc8-0b3cfa619970"/>
-    <ds:schemaRef ds:uri="9aa64958-17f9-4662-a27a-21f507a1bfb5"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>